--- a/Example_Data/Tarland_Scotland/Parameters_v0-1A_Tarland.xlsx
+++ b/Example_Data/Tarland_Scotland/Parameters_v0-1A_Tarland.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Working\SimplyP-Hydrology_Model\Example_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\SimplyP\Example_Data\Tarland_Scotland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="7242" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="8" r:id="rId1"/>
@@ -746,16 +746,16 @@
     <t>Bulk density(kg/m3)</t>
   </si>
   <si>
-    <t>C:\Data\Working\SimplyP-Hydrology_Model\Example_Data\Tarland_MetData_1981-2010.csv</t>
-  </si>
-  <si>
-    <t>C:\Data\Working\SimplyP-Hydrology_Model\Example_Data\Observations\Tarland\WholePeriod\Coull_DailyMeanQ.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Data\Working\SimplyP-Hydrology_Model\Example_Data\Observations\Tarland\WholePeriod\Coull_ChemObs.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Data\Working\SimplyP-Hydrology_Model\Example_Data\Model_Output</t>
+    <t>C:\Data\GitHub\SimplyP\Example_Data\Tarland_Scotland\Tarland_MetData_1981-2010.csv</t>
+  </si>
+  <si>
+    <t>C:\Data\GitHub\SimplyP\Example_Data\Tarland_Scotland\Observations\Coull_DailyMeanQ.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Data\GitHub\SimplyP\Example_Data\Tarland_Scotland\Observations\Coull_ChemObs.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Data\SimplyP_Local\v0-1A\Temp_Output</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
